--- a/src/test/resources/examplefiles/formulas.xlsx
+++ b/src/test/resources/examplefiles/formulas.xlsx
@@ -18,61 +18,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Kolonne 1</t>
+    <t>Column 1</t>
   </si>
   <si>
-    <t>Kolonne 2</t>
+    <t>Column 2</t>
   </si>
   <si>
-    <t>Kolonne 3</t>
+    <t>Column 3</t>
   </si>
   <si>
-    <t>Kolonne 4</t>
+    <t>Column 4</t>
   </si>
   <si>
-    <t>Kolonne 5</t>
+    <t>Column 5</t>
   </si>
   <si>
-    <t>Kolonne 6</t>
+    <t>Column 6</t>
   </si>
   <si>
-    <t>Kolonne 7</t>
+    <t>Column 7</t>
   </si>
   <si>
-    <t>Kolonne 8</t>
+    <t>Column 8</t>
   </si>
   <si>
-    <t>Kolonne 9</t>
+    <t>Column 9</t>
   </si>
   <si>
-    <t>Kolonne 10</t>
+    <t>Column 10</t>
   </si>
   <si>
-    <t>Kolonne 11</t>
+    <t>Column 11</t>
   </si>
   <si>
-    <t>Kolonne 12</t>
+    <t>Column 12</t>
   </si>
   <si>
-    <t>Kolonne 13</t>
+    <t>Column 13</t>
   </si>
   <si>
-    <t>Kolonne 14</t>
+    <t>Column 14</t>
   </si>
   <si>
-    <t>Kolonne 15</t>
+    <t>Column 15</t>
   </si>
   <si>
-    <t>Kolonne 16</t>
+    <t>Column 16</t>
   </si>
   <si>
-    <t>Kolonne 17</t>
+    <t>Column 17</t>
   </si>
   <si>
-    <t>Kolonne 18</t>
+    <t>Column 18</t>
   </si>
   <si>
-    <t>Kolonne 19</t>
+    <t>Column 19</t>
   </si>
 </sst>
 </file>
@@ -168,16 +168,16 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,80 +470,80 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="str">
-        <f t="shared" ref="B2:T2" si="1">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 2, Kolonne: 2</v>
+        <f t="shared" ref="B2:T2" si="1">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 2, Column: 2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 3</v>
+        <v>Row: 2, Column: 3</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 4</v>
+        <v>Row: 2, Column: 4</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 5</v>
+        <v>Row: 2, Column: 5</v>
       </c>
       <c r="F2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 6</v>
+        <v>Row: 2, Column: 6</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 7</v>
+        <v>Row: 2, Column: 7</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 8</v>
+        <v>Row: 2, Column: 8</v>
       </c>
       <c r="I2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 9</v>
+        <v>Row: 2, Column: 9</v>
       </c>
       <c r="J2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 10</v>
+        <v>Row: 2, Column: 10</v>
       </c>
       <c r="K2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 11</v>
+        <v>Row: 2, Column: 11</v>
       </c>
       <c r="L2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 12</v>
+        <v>Row: 2, Column: 12</v>
       </c>
       <c r="M2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 13</v>
+        <v>Row: 2, Column: 13</v>
       </c>
       <c r="N2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 14</v>
+        <v>Row: 2, Column: 14</v>
       </c>
       <c r="O2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 15</v>
+        <v>Row: 2, Column: 15</v>
       </c>
       <c r="P2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 16</v>
+        <v>Row: 2, Column: 16</v>
       </c>
       <c r="Q2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 17</v>
+        <v>Row: 2, Column: 17</v>
       </c>
       <c r="R2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 18</v>
+        <v>Row: 2, Column: 18</v>
       </c>
       <c r="S2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 19</v>
+        <v>Row: 2, Column: 19</v>
       </c>
       <c r="T2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Rad: 2, Kolonne: 20</v>
+        <v>Row: 2, Column: 20</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -555,80 +555,80 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:T3" si="2">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 3, Kolonne: 2</v>
+        <f t="shared" ref="B3:T3" si="2">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 3, Column: 2</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 3</v>
+        <v>Row: 3, Column: 3</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 4</v>
+        <v>Row: 3, Column: 4</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 5</v>
+        <v>Row: 3, Column: 5</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 6</v>
+        <v>Row: 3, Column: 6</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 7</v>
+        <v>Row: 3, Column: 7</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 8</v>
+        <v>Row: 3, Column: 8</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 9</v>
+        <v>Row: 3, Column: 9</v>
       </c>
       <c r="J3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 10</v>
+        <v>Row: 3, Column: 10</v>
       </c>
       <c r="K3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 11</v>
+        <v>Row: 3, Column: 11</v>
       </c>
       <c r="L3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 12</v>
+        <v>Row: 3, Column: 12</v>
       </c>
       <c r="M3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 13</v>
+        <v>Row: 3, Column: 13</v>
       </c>
       <c r="N3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 14</v>
+        <v>Row: 3, Column: 14</v>
       </c>
       <c r="O3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 15</v>
+        <v>Row: 3, Column: 15</v>
       </c>
       <c r="P3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 16</v>
+        <v>Row: 3, Column: 16</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 17</v>
+        <v>Row: 3, Column: 17</v>
       </c>
       <c r="R3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 18</v>
+        <v>Row: 3, Column: 18</v>
       </c>
       <c r="S3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 19</v>
+        <v>Row: 3, Column: 19</v>
       </c>
       <c r="T3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>Rad: 3, Kolonne: 20</v>
+        <v>Row: 3, Column: 20</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -640,80 +640,80 @@
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="str">
-        <f t="shared" ref="B4:T4" si="3">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 4, Kolonne: 2</v>
+        <f t="shared" ref="B4:T4" si="3">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 4, Column: 2</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 3</v>
+        <v>Row: 4, Column: 3</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 4</v>
+        <v>Row: 4, Column: 4</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 5</v>
+        <v>Row: 4, Column: 5</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 6</v>
+        <v>Row: 4, Column: 6</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 7</v>
+        <v>Row: 4, Column: 7</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 8</v>
+        <v>Row: 4, Column: 8</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 9</v>
+        <v>Row: 4, Column: 9</v>
       </c>
       <c r="J4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 10</v>
+        <v>Row: 4, Column: 10</v>
       </c>
       <c r="K4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 11</v>
+        <v>Row: 4, Column: 11</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 12</v>
+        <v>Row: 4, Column: 12</v>
       </c>
       <c r="M4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 13</v>
+        <v>Row: 4, Column: 13</v>
       </c>
       <c r="N4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 14</v>
+        <v>Row: 4, Column: 14</v>
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 15</v>
+        <v>Row: 4, Column: 15</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 16</v>
+        <v>Row: 4, Column: 16</v>
       </c>
       <c r="Q4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 17</v>
+        <v>Row: 4, Column: 17</v>
       </c>
       <c r="R4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 18</v>
+        <v>Row: 4, Column: 18</v>
       </c>
       <c r="S4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 19</v>
+        <v>Row: 4, Column: 19</v>
       </c>
       <c r="T4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Rad: 4, Kolonne: 20</v>
+        <v>Row: 4, Column: 20</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -725,80 +725,80 @@
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="str">
-        <f t="shared" ref="B5:T5" si="4">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 5, Kolonne: 2</v>
+        <f t="shared" ref="B5:T5" si="4">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 5, Column: 2</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 3</v>
+        <v>Row: 5, Column: 3</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 4</v>
+        <v>Row: 5, Column: 4</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 5</v>
+        <v>Row: 5, Column: 5</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 6</v>
+        <v>Row: 5, Column: 6</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 7</v>
+        <v>Row: 5, Column: 7</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 8</v>
+        <v>Row: 5, Column: 8</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 9</v>
+        <v>Row: 5, Column: 9</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 10</v>
+        <v>Row: 5, Column: 10</v>
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 11</v>
+        <v>Row: 5, Column: 11</v>
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 12</v>
+        <v>Row: 5, Column: 12</v>
       </c>
       <c r="M5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 13</v>
+        <v>Row: 5, Column: 13</v>
       </c>
       <c r="N5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 14</v>
+        <v>Row: 5, Column: 14</v>
       </c>
       <c r="O5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 15</v>
+        <v>Row: 5, Column: 15</v>
       </c>
       <c r="P5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 16</v>
+        <v>Row: 5, Column: 16</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 17</v>
+        <v>Row: 5, Column: 17</v>
       </c>
       <c r="R5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 18</v>
+        <v>Row: 5, Column: 18</v>
       </c>
       <c r="S5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 19</v>
+        <v>Row: 5, Column: 19</v>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Rad: 5, Kolonne: 20</v>
+        <v>Row: 5, Column: 20</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -810,80 +810,80 @@
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="str">
-        <f t="shared" ref="B6:T6" si="5">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 6, Kolonne: 2</v>
+        <f t="shared" ref="B6:T6" si="5">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 6, Column: 2</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 3</v>
+        <v>Row: 6, Column: 3</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 4</v>
+        <v>Row: 6, Column: 4</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 5</v>
+        <v>Row: 6, Column: 5</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 6</v>
+        <v>Row: 6, Column: 6</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 7</v>
+        <v>Row: 6, Column: 7</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 8</v>
+        <v>Row: 6, Column: 8</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 9</v>
+        <v>Row: 6, Column: 9</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 10</v>
+        <v>Row: 6, Column: 10</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 11</v>
+        <v>Row: 6, Column: 11</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 12</v>
+        <v>Row: 6, Column: 12</v>
       </c>
       <c r="M6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 13</v>
+        <v>Row: 6, Column: 13</v>
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 14</v>
+        <v>Row: 6, Column: 14</v>
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 15</v>
+        <v>Row: 6, Column: 15</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 16</v>
+        <v>Row: 6, Column: 16</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 17</v>
+        <v>Row: 6, Column: 17</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 18</v>
+        <v>Row: 6, Column: 18</v>
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 19</v>
+        <v>Row: 6, Column: 19</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Rad: 6, Kolonne: 20</v>
+        <v>Row: 6, Column: 20</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -895,80 +895,80 @@
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="str">
-        <f t="shared" ref="B7:T7" si="6">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 7, Kolonne: 2</v>
+        <f t="shared" ref="B7:T7" si="6">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 7, Column: 2</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 3</v>
+        <v>Row: 7, Column: 3</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 4</v>
+        <v>Row: 7, Column: 4</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 5</v>
+        <v>Row: 7, Column: 5</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 6</v>
+        <v>Row: 7, Column: 6</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 7</v>
+        <v>Row: 7, Column: 7</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 8</v>
+        <v>Row: 7, Column: 8</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 9</v>
+        <v>Row: 7, Column: 9</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 10</v>
+        <v>Row: 7, Column: 10</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 11</v>
+        <v>Row: 7, Column: 11</v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 12</v>
+        <v>Row: 7, Column: 12</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 13</v>
+        <v>Row: 7, Column: 13</v>
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 14</v>
+        <v>Row: 7, Column: 14</v>
       </c>
       <c r="O7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 15</v>
+        <v>Row: 7, Column: 15</v>
       </c>
       <c r="P7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 16</v>
+        <v>Row: 7, Column: 16</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 17</v>
+        <v>Row: 7, Column: 17</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 18</v>
+        <v>Row: 7, Column: 18</v>
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 19</v>
+        <v>Row: 7, Column: 19</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Rad: 7, Kolonne: 20</v>
+        <v>Row: 7, Column: 20</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -980,80 +980,80 @@
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="str">
-        <f t="shared" ref="B8:T8" si="7">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 8, Kolonne: 2</v>
+        <f t="shared" ref="B8:T8" si="7">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 8, Column: 2</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 3</v>
+        <v>Row: 8, Column: 3</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 4</v>
+        <v>Row: 8, Column: 4</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 5</v>
+        <v>Row: 8, Column: 5</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 6</v>
+        <v>Row: 8, Column: 6</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 7</v>
+        <v>Row: 8, Column: 7</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 8</v>
+        <v>Row: 8, Column: 8</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 9</v>
+        <v>Row: 8, Column: 9</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 10</v>
+        <v>Row: 8, Column: 10</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 11</v>
+        <v>Row: 8, Column: 11</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 12</v>
+        <v>Row: 8, Column: 12</v>
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 13</v>
+        <v>Row: 8, Column: 13</v>
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 14</v>
+        <v>Row: 8, Column: 14</v>
       </c>
       <c r="O8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 15</v>
+        <v>Row: 8, Column: 15</v>
       </c>
       <c r="P8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 16</v>
+        <v>Row: 8, Column: 16</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 17</v>
+        <v>Row: 8, Column: 17</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 18</v>
+        <v>Row: 8, Column: 18</v>
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 19</v>
+        <v>Row: 8, Column: 19</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Rad: 8, Kolonne: 20</v>
+        <v>Row: 8, Column: 20</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -1065,80 +1065,80 @@
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="str">
-        <f t="shared" ref="B9:T9" si="8">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 9, Kolonne: 2</v>
+        <f t="shared" ref="B9:T9" si="8">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 9, Column: 2</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 3</v>
+        <v>Row: 9, Column: 3</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 4</v>
+        <v>Row: 9, Column: 4</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 5</v>
+        <v>Row: 9, Column: 5</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 6</v>
+        <v>Row: 9, Column: 6</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 7</v>
+        <v>Row: 9, Column: 7</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 8</v>
+        <v>Row: 9, Column: 8</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 9</v>
+        <v>Row: 9, Column: 9</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 10</v>
+        <v>Row: 9, Column: 10</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 11</v>
+        <v>Row: 9, Column: 11</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 12</v>
+        <v>Row: 9, Column: 12</v>
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 13</v>
+        <v>Row: 9, Column: 13</v>
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 14</v>
+        <v>Row: 9, Column: 14</v>
       </c>
       <c r="O9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 15</v>
+        <v>Row: 9, Column: 15</v>
       </c>
       <c r="P9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 16</v>
+        <v>Row: 9, Column: 16</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 17</v>
+        <v>Row: 9, Column: 17</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 18</v>
+        <v>Row: 9, Column: 18</v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 19</v>
+        <v>Row: 9, Column: 19</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>Rad: 9, Kolonne: 20</v>
+        <v>Row: 9, Column: 20</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1150,80 +1150,80 @@
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="str">
-        <f t="shared" ref="B10:T10" si="9">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 10, Kolonne: 2</v>
+        <f t="shared" ref="B10:T10" si="9">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 10, Column: 2</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 3</v>
+        <v>Row: 10, Column: 3</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 4</v>
+        <v>Row: 10, Column: 4</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 5</v>
+        <v>Row: 10, Column: 5</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 6</v>
+        <v>Row: 10, Column: 6</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 7</v>
+        <v>Row: 10, Column: 7</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 8</v>
+        <v>Row: 10, Column: 8</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 9</v>
+        <v>Row: 10, Column: 9</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 10</v>
+        <v>Row: 10, Column: 10</v>
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 11</v>
+        <v>Row: 10, Column: 11</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 12</v>
+        <v>Row: 10, Column: 12</v>
       </c>
       <c r="M10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 13</v>
+        <v>Row: 10, Column: 13</v>
       </c>
       <c r="N10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 14</v>
+        <v>Row: 10, Column: 14</v>
       </c>
       <c r="O10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 15</v>
+        <v>Row: 10, Column: 15</v>
       </c>
       <c r="P10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 16</v>
+        <v>Row: 10, Column: 16</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 17</v>
+        <v>Row: 10, Column: 17</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 18</v>
+        <v>Row: 10, Column: 18</v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 19</v>
+        <v>Row: 10, Column: 19</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Rad: 10, Kolonne: 20</v>
+        <v>Row: 10, Column: 20</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1235,80 +1235,80 @@
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="str">
-        <f t="shared" ref="B11:T11" si="10">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 11, Kolonne: 2</v>
+        <f t="shared" ref="B11:T11" si="10">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 11, Column: 2</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 3</v>
+        <v>Row: 11, Column: 3</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 4</v>
+        <v>Row: 11, Column: 4</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 5</v>
+        <v>Row: 11, Column: 5</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 6</v>
+        <v>Row: 11, Column: 6</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 7</v>
+        <v>Row: 11, Column: 7</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 8</v>
+        <v>Row: 11, Column: 8</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 9</v>
+        <v>Row: 11, Column: 9</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 10</v>
+        <v>Row: 11, Column: 10</v>
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 11</v>
+        <v>Row: 11, Column: 11</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 12</v>
+        <v>Row: 11, Column: 12</v>
       </c>
       <c r="M11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 13</v>
+        <v>Row: 11, Column: 13</v>
       </c>
       <c r="N11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 14</v>
+        <v>Row: 11, Column: 14</v>
       </c>
       <c r="O11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 15</v>
+        <v>Row: 11, Column: 15</v>
       </c>
       <c r="P11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 16</v>
+        <v>Row: 11, Column: 16</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 17</v>
+        <v>Row: 11, Column: 17</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 18</v>
+        <v>Row: 11, Column: 18</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 19</v>
+        <v>Row: 11, Column: 19</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>Rad: 11, Kolonne: 20</v>
+        <v>Row: 11, Column: 20</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1320,80 +1320,80 @@
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="str">
-        <f t="shared" ref="B12:T12" si="11">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 12, Kolonne: 2</v>
+        <f t="shared" ref="B12:T12" si="11">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 12, Column: 2</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 3</v>
+        <v>Row: 12, Column: 3</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 4</v>
+        <v>Row: 12, Column: 4</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 5</v>
+        <v>Row: 12, Column: 5</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 6</v>
+        <v>Row: 12, Column: 6</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 7</v>
+        <v>Row: 12, Column: 7</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 8</v>
+        <v>Row: 12, Column: 8</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 9</v>
+        <v>Row: 12, Column: 9</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 10</v>
+        <v>Row: 12, Column: 10</v>
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 11</v>
+        <v>Row: 12, Column: 11</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 12</v>
+        <v>Row: 12, Column: 12</v>
       </c>
       <c r="M12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 13</v>
+        <v>Row: 12, Column: 13</v>
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 14</v>
+        <v>Row: 12, Column: 14</v>
       </c>
       <c r="O12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 15</v>
+        <v>Row: 12, Column: 15</v>
       </c>
       <c r="P12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 16</v>
+        <v>Row: 12, Column: 16</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 17</v>
+        <v>Row: 12, Column: 17</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 18</v>
+        <v>Row: 12, Column: 18</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 19</v>
+        <v>Row: 12, Column: 19</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Rad: 12, Kolonne: 20</v>
+        <v>Row: 12, Column: 20</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1405,80 +1405,80 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="str">
-        <f t="shared" ref="B13:T13" si="12">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 13, Kolonne: 2</v>
+        <f t="shared" ref="B13:T13" si="12">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 13, Column: 2</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 3</v>
+        <v>Row: 13, Column: 3</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 4</v>
+        <v>Row: 13, Column: 4</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 5</v>
+        <v>Row: 13, Column: 5</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 6</v>
+        <v>Row: 13, Column: 6</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 7</v>
+        <v>Row: 13, Column: 7</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 8</v>
+        <v>Row: 13, Column: 8</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 9</v>
+        <v>Row: 13, Column: 9</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 10</v>
+        <v>Row: 13, Column: 10</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 11</v>
+        <v>Row: 13, Column: 11</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 12</v>
+        <v>Row: 13, Column: 12</v>
       </c>
       <c r="M13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 13</v>
+        <v>Row: 13, Column: 13</v>
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 14</v>
+        <v>Row: 13, Column: 14</v>
       </c>
       <c r="O13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 15</v>
+        <v>Row: 13, Column: 15</v>
       </c>
       <c r="P13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 16</v>
+        <v>Row: 13, Column: 16</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 17</v>
+        <v>Row: 13, Column: 17</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 18</v>
+        <v>Row: 13, Column: 18</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 19</v>
+        <v>Row: 13, Column: 19</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Rad: 13, Kolonne: 20</v>
+        <v>Row: 13, Column: 20</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -1490,80 +1490,80 @@
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="str">
-        <f t="shared" ref="B14:T14" si="13">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 14, Kolonne: 2</v>
+        <f t="shared" ref="B14:T14" si="13">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 14, Column: 2</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 3</v>
+        <v>Row: 14, Column: 3</v>
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 4</v>
+        <v>Row: 14, Column: 4</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 5</v>
+        <v>Row: 14, Column: 5</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 6</v>
+        <v>Row: 14, Column: 6</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 7</v>
+        <v>Row: 14, Column: 7</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 8</v>
+        <v>Row: 14, Column: 8</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 9</v>
+        <v>Row: 14, Column: 9</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 10</v>
+        <v>Row: 14, Column: 10</v>
       </c>
       <c r="K14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 11</v>
+        <v>Row: 14, Column: 11</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 12</v>
+        <v>Row: 14, Column: 12</v>
       </c>
       <c r="M14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 13</v>
+        <v>Row: 14, Column: 13</v>
       </c>
       <c r="N14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 14</v>
+        <v>Row: 14, Column: 14</v>
       </c>
       <c r="O14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 15</v>
+        <v>Row: 14, Column: 15</v>
       </c>
       <c r="P14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 16</v>
+        <v>Row: 14, Column: 16</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 17</v>
+        <v>Row: 14, Column: 17</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 18</v>
+        <v>Row: 14, Column: 18</v>
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 19</v>
+        <v>Row: 14, Column: 19</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Rad: 14, Kolonne: 20</v>
+        <v>Row: 14, Column: 20</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -1575,80 +1575,80 @@
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="str">
-        <f t="shared" ref="B15:T15" si="14">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 15, Kolonne: 2</v>
+        <f t="shared" ref="B15:T15" si="14">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 15, Column: 2</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 3</v>
+        <v>Row: 15, Column: 3</v>
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 4</v>
+        <v>Row: 15, Column: 4</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 5</v>
+        <v>Row: 15, Column: 5</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 6</v>
+        <v>Row: 15, Column: 6</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 7</v>
+        <v>Row: 15, Column: 7</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 8</v>
+        <v>Row: 15, Column: 8</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 9</v>
+        <v>Row: 15, Column: 9</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 10</v>
+        <v>Row: 15, Column: 10</v>
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 11</v>
+        <v>Row: 15, Column: 11</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 12</v>
+        <v>Row: 15, Column: 12</v>
       </c>
       <c r="M15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 13</v>
+        <v>Row: 15, Column: 13</v>
       </c>
       <c r="N15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 14</v>
+        <v>Row: 15, Column: 14</v>
       </c>
       <c r="O15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 15</v>
+        <v>Row: 15, Column: 15</v>
       </c>
       <c r="P15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 16</v>
+        <v>Row: 15, Column: 16</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 17</v>
+        <v>Row: 15, Column: 17</v>
       </c>
       <c r="R15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 18</v>
+        <v>Row: 15, Column: 18</v>
       </c>
       <c r="S15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 19</v>
+        <v>Row: 15, Column: 19</v>
       </c>
       <c r="T15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Rad: 15, Kolonne: 20</v>
+        <v>Row: 15, Column: 20</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1660,80 +1660,80 @@
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="str">
-        <f t="shared" ref="B16:T16" si="15">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 16, Kolonne: 2</v>
+        <f t="shared" ref="B16:T16" si="15">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 16, Column: 2</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 3</v>
+        <v>Row: 16, Column: 3</v>
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 4</v>
+        <v>Row: 16, Column: 4</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 5</v>
+        <v>Row: 16, Column: 5</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 6</v>
+        <v>Row: 16, Column: 6</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 7</v>
+        <v>Row: 16, Column: 7</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 8</v>
+        <v>Row: 16, Column: 8</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 9</v>
+        <v>Row: 16, Column: 9</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 10</v>
+        <v>Row: 16, Column: 10</v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 11</v>
+        <v>Row: 16, Column: 11</v>
       </c>
       <c r="L16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 12</v>
+        <v>Row: 16, Column: 12</v>
       </c>
       <c r="M16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 13</v>
+        <v>Row: 16, Column: 13</v>
       </c>
       <c r="N16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 14</v>
+        <v>Row: 16, Column: 14</v>
       </c>
       <c r="O16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 15</v>
+        <v>Row: 16, Column: 15</v>
       </c>
       <c r="P16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 16</v>
+        <v>Row: 16, Column: 16</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 17</v>
+        <v>Row: 16, Column: 17</v>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 18</v>
+        <v>Row: 16, Column: 18</v>
       </c>
       <c r="S16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 19</v>
+        <v>Row: 16, Column: 19</v>
       </c>
       <c r="T16" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>Rad: 16, Kolonne: 20</v>
+        <v>Row: 16, Column: 20</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1745,80 +1745,80 @@
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="str">
-        <f t="shared" ref="B17:T17" si="16">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 17, Kolonne: 2</v>
+        <f t="shared" ref="B17:T17" si="16">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 17, Column: 2</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 3</v>
+        <v>Row: 17, Column: 3</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 4</v>
+        <v>Row: 17, Column: 4</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 5</v>
+        <v>Row: 17, Column: 5</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 6</v>
+        <v>Row: 17, Column: 6</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 7</v>
+        <v>Row: 17, Column: 7</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 8</v>
+        <v>Row: 17, Column: 8</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 9</v>
+        <v>Row: 17, Column: 9</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 10</v>
+        <v>Row: 17, Column: 10</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 11</v>
+        <v>Row: 17, Column: 11</v>
       </c>
       <c r="L17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 12</v>
+        <v>Row: 17, Column: 12</v>
       </c>
       <c r="M17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 13</v>
+        <v>Row: 17, Column: 13</v>
       </c>
       <c r="N17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 14</v>
+        <v>Row: 17, Column: 14</v>
       </c>
       <c r="O17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 15</v>
+        <v>Row: 17, Column: 15</v>
       </c>
       <c r="P17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 16</v>
+        <v>Row: 17, Column: 16</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 17</v>
+        <v>Row: 17, Column: 17</v>
       </c>
       <c r="R17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 18</v>
+        <v>Row: 17, Column: 18</v>
       </c>
       <c r="S17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 19</v>
+        <v>Row: 17, Column: 19</v>
       </c>
       <c r="T17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>Rad: 17, Kolonne: 20</v>
+        <v>Row: 17, Column: 20</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1830,80 +1830,80 @@
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="str">
-        <f t="shared" ref="B18:T18" si="17">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 18, Kolonne: 2</v>
+        <f t="shared" ref="B18:T18" si="17">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 18, Column: 2</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 3</v>
+        <v>Row: 18, Column: 3</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 4</v>
+        <v>Row: 18, Column: 4</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 5</v>
+        <v>Row: 18, Column: 5</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 6</v>
+        <v>Row: 18, Column: 6</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 7</v>
+        <v>Row: 18, Column: 7</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 8</v>
+        <v>Row: 18, Column: 8</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 9</v>
+        <v>Row: 18, Column: 9</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 10</v>
+        <v>Row: 18, Column: 10</v>
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 11</v>
+        <v>Row: 18, Column: 11</v>
       </c>
       <c r="L18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 12</v>
+        <v>Row: 18, Column: 12</v>
       </c>
       <c r="M18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 13</v>
+        <v>Row: 18, Column: 13</v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 14</v>
+        <v>Row: 18, Column: 14</v>
       </c>
       <c r="O18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 15</v>
+        <v>Row: 18, Column: 15</v>
       </c>
       <c r="P18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 16</v>
+        <v>Row: 18, Column: 16</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 17</v>
+        <v>Row: 18, Column: 17</v>
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 18</v>
+        <v>Row: 18, Column: 18</v>
       </c>
       <c r="S18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 19</v>
+        <v>Row: 18, Column: 19</v>
       </c>
       <c r="T18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Rad: 18, Kolonne: 20</v>
+        <v>Row: 18, Column: 20</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -1915,80 +1915,80 @@
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="str">
-        <f t="shared" ref="B19:T19" si="18">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 19, Kolonne: 2</v>
+        <f t="shared" ref="B19:T19" si="18">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 19, Column: 2</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 3</v>
+        <v>Row: 19, Column: 3</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 4</v>
+        <v>Row: 19, Column: 4</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 5</v>
+        <v>Row: 19, Column: 5</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 6</v>
+        <v>Row: 19, Column: 6</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 7</v>
+        <v>Row: 19, Column: 7</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 8</v>
+        <v>Row: 19, Column: 8</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 9</v>
+        <v>Row: 19, Column: 9</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 10</v>
+        <v>Row: 19, Column: 10</v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 11</v>
+        <v>Row: 19, Column: 11</v>
       </c>
       <c r="L19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 12</v>
+        <v>Row: 19, Column: 12</v>
       </c>
       <c r="M19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 13</v>
+        <v>Row: 19, Column: 13</v>
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 14</v>
+        <v>Row: 19, Column: 14</v>
       </c>
       <c r="O19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 15</v>
+        <v>Row: 19, Column: 15</v>
       </c>
       <c r="P19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 16</v>
+        <v>Row: 19, Column: 16</v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 17</v>
+        <v>Row: 19, Column: 17</v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 18</v>
+        <v>Row: 19, Column: 18</v>
       </c>
       <c r="S19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 19</v>
+        <v>Row: 19, Column: 19</v>
       </c>
       <c r="T19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>Rad: 19, Kolonne: 20</v>
+        <v>Row: 19, Column: 20</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -2000,80 +2000,80 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="str">
-        <f t="shared" ref="B20:T20" si="19">"Rad: " &amp; ROW() &amp; ", Kolonne: " &amp; COLUMN()</f>
-        <v>Rad: 20, Kolonne: 2</v>
+        <f t="shared" ref="B20:T20" si="19">"Row: " &amp; ROW() &amp; ", Column: " &amp; COLUMN()</f>
+        <v>Row: 20, Column: 2</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 3</v>
+        <v>Row: 20, Column: 3</v>
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 4</v>
+        <v>Row: 20, Column: 4</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 5</v>
+        <v>Row: 20, Column: 5</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 6</v>
+        <v>Row: 20, Column: 6</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 7</v>
+        <v>Row: 20, Column: 7</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 8</v>
+        <v>Row: 20, Column: 8</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 9</v>
+        <v>Row: 20, Column: 9</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 10</v>
+        <v>Row: 20, Column: 10</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 11</v>
+        <v>Row: 20, Column: 11</v>
       </c>
       <c r="L20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 12</v>
+        <v>Row: 20, Column: 12</v>
       </c>
       <c r="M20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 13</v>
+        <v>Row: 20, Column: 13</v>
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 14</v>
+        <v>Row: 20, Column: 14</v>
       </c>
       <c r="O20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 15</v>
+        <v>Row: 20, Column: 15</v>
       </c>
       <c r="P20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 16</v>
+        <v>Row: 20, Column: 16</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 17</v>
+        <v>Row: 20, Column: 17</v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 18</v>
+        <v>Row: 20, Column: 18</v>
       </c>
       <c r="S20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 19</v>
+        <v>Row: 20, Column: 19</v>
       </c>
       <c r="T20" s="5" t="str">
         <f t="shared" si="19"/>
-        <v>Rad: 20, Kolonne: 20</v>
+        <v>Row: 20, Column: 20</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
